--- a/biology/Botanique/Liste_de_plantes_ornementales/Liste_de_plantes_ornementales.xlsx
+++ b/biology/Botanique/Liste_de_plantes_ornementales/Liste_de_plantes_ornementales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste de plantes ornementales, non exhaustive, recense des espèces et variétés de plantes qui sont cultivées pour leurs qualités ornementales, mais qui peuvent avoir pour certaines d'entre elles d'autres usages, notamment comme plantes alimentaires ou médicinales. Ces plantes peuvent aussi avoir une certaine valeur commerciale ou économique.
 </t>
@@ -511,7 +523,9 @@
           <t>Arbres et arbustes d'ornement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arbres d'alignement
@@ -767,15 +781,51 @@
           <t>Plantes à fleurs de jardin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fleurs coupées
 Plantes bisannuelles
 Plantes annuelles
 Plantes vivaces
-Plantes bulbeuses à floraison estivale et automnale
-Plantes grimpantes
-Plantes grimpantes herbacées
+Plantes bulbeuses à floraison estivale et automnale</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs de jardin</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Plantes grimpantes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plantes grimpantes herbacées
 Aristoloche siphon, Aristolochia macrophylla, Aristolochiacées ;
 Capucine des canaris, Tropaeolum peregrinum, Tropaéolacées ;
 Cobée grimpante, Cobæa scandens, Polémoniacées ;
@@ -811,33 +861,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_de_plantes_ornementales</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Plantes d'appartement</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes d'intérieur phytoremédiatrices
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plantes d'intérieur phytoremédiatrices
 Sommaire :
 Haut – A
 B
@@ -865,105 +917,649 @@
 X
 Y
 Z
-A
-Aechmea fasciata
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aechmea fasciata
 Aglaonema crispum « Silver Queen » syn. Aglaonema roebelinii
 Aloe barbadensis syn. Aloe vera, Aloe medicinale
 Anthurium andraeanum
-Araucaria heterophylla (pin de Norfolk)
-B
-Brassaia actinophylla (Schefflera)
-Begonia semperflorens
-C
-Calathea makoyana
+Araucaria heterophylla (pin de Norfolk)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Brassaia actinophylla (Schefflera)
+Begonia semperflorens</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Calathea makoyana
 Chamaedorea elegans
 Chamaedorea seifrizii
 Cissus rhombofilia « Ellen Danika »
 Chlorophytum comosum « Vittatum »
 Chrysanthemum morifolium
 Codiaeum cariegatum pictum
-Cyclamen persicum
-D
-Dendrobium sp
+Cyclamen persicum</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dendrobium sp
 Dieffenbachia camilla
 Dieffenbachia « Exotica Compacta »
 Dracaena deremensis « Janet Craig »
 Dracaena deremensis « Warneckei »
 Dracaena fragrans « Massangeana »
 Dracaena marginata
-Dypsis lutescens
-E
-Epipremnum aureum syn. Pothos, Scindapsus
-Euphorbia pulcherrima (Poinsettia)
-F
-Ficus benjamina
+Dypsis lutescens</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Epipremnum aureum syn. Pothos, Scindapsus
+Euphorbia pulcherrima (Poinsettia)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ficus benjamina
 Ficus macleilandii « Alii »
-Ficus robusta(?lastica)
-G
-Gerbera jamesonii
-H
-Hedera helix
-Homalomena wallisii
-I
-K
-Kalanchoe blossfeldiana
-Kentia
-L
-Liriope spicata
-M
-Maranta leuconeura « Kerchoveana »
-Musa cavendishii
-N
-Nephrolepis exaltata « Bostonniensis »
-Nephrolepis obliterata
-O
-P
-Phalaenopsis sp.
+Ficus robusta(?lastica)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Gerbera jamesonii</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Hedera helix
+Homalomena wallisii</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Kalanchoe blossfeldiana
+Kentia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Liriope spicata</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Maranta leuconeura « Kerchoveana »
+Musa cavendishii</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Nephrolepis exaltata « Bostonniensis »
+Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Phalaenopsis sp.
 Philodendron erubescens
 Philodendron domesticum / tuxla / basbatum
 Philodendron oxycardium / scandens
 Philodendron selloum
-Phoenix roebelenii
-Q
-R
-Rhapis excelsa
-Rhododendron simsii « Compacta »(Azalée)
-S
-Sansevieria trifasciata
+Phoenix roebelenii</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Rhapis excelsa
+Rhododendron simsii « Compacta »(Azalée)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sansevieria trifasciata
 Schefflera actinophylla
 Schlumbergera bridgesii / rhipsalidopsis
 Spathiphyllum sp.
-Syngonium podophyllum
-T
-Tulipa gesneriana</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_de_plantes_ornementales</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Syngonium podophyllum</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Plantes d'appartement</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Tulipa gesneriana</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_ornementales</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Plantes à gazon</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Agrostide stolonifère
 Agrostis capillaris
